--- a/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,46</t>
+          <t>1,33; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,35</t>
+          <t>0,42; 2,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,15</t>
+          <t>0,25; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,75</t>
+          <t>1,75; 4,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,41</t>
+          <t>0,71; 3,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,18</t>
+          <t>1,49; 5,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,16</t>
+          <t>0,5; 4,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,05</t>
+          <t>1,82; 3,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,31</t>
+          <t>0,67; 2,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,86</t>
+          <t>0,88; 2,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,34</t>
+          <t>0,4; 2,4</t>
         </is>
       </c>
     </row>
@@ -864,47 +864,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,83</t>
+          <t>2,04; 4,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,31</t>
+          <t>0,96; 3,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,72</t>
+          <t>0,7; 2,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,95</t>
+          <t>0,96; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,69</t>
+          <t>3,28; 6,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,2</t>
+          <t>0,99; 3,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,54</t>
+          <t>1,18; 3,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,15</t>
+          <t>0,63; 3,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,96</t>
+          <t>2,83; 5,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,62</t>
+          <t>1,14; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,24</t>
+          <t>1,03; 3,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,65</t>
+          <t>2,42; 5,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,48</t>
+          <t>1,06; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,05</t>
+          <t>0,48; 2,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,63</t>
+          <t>0,36; 2,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,91</t>
+          <t>4,31; 7,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,31</t>
+          <t>1,14; 3,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,2</t>
+          <t>1,12; 3,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,78</t>
+          <t>0,3; 1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,99</t>
+          <t>3,78; 6,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,94</t>
+          <t>1,33; 2,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,35</t>
+          <t>0,96; 2,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,74</t>
+          <t>0,47; 1,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,6</t>
+          <t>0,81; 3,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,16</t>
+          <t>1,24; 4,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,29</t>
+          <t>0,78; 3,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,51</t>
+          <t>0,14; 1,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,11</t>
+          <t>2,57; 5,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,78</t>
+          <t>0,52; 2,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,2</t>
+          <t>1,0; 3,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,87</t>
+          <t>0,59; 1,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,34</t>
+          <t>2,1; 4,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,87</t>
+          <t>1,16; 2,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,89</t>
+          <t>1,09; 2,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,36</t>
+          <t>0,49; 1,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,15</t>
+          <t>2,23; 6,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,71</t>
+          <t>0,47; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,75</t>
+          <t>0,42; 2,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,67</t>
+          <t>0,75; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,43</t>
+          <t>2,87; 7,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,88</t>
+          <t>0,47; 2,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,86</t>
+          <t>0,47; 2,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,5</t>
+          <t>0,93; 2,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,94</t>
+          <t>2,98; 6,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,35</t>
+          <t>0,71; 2,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,42</t>
+          <t>0,68; 2,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,23</t>
+          <t>0,99; 2,34</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,34</t>
+          <t>1,53; 4,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,26</t>
+          <t>0,37; 2,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,05</t>
+          <t>0,91; 3,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,94</t>
+          <t>0,61; 1,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,86</t>
+          <t>3,6; 6,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,67</t>
+          <t>0,68; 2,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,22</t>
+          <t>1,55; 4,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,91</t>
+          <t>0,75; 1,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,17</t>
+          <t>2,99; 5,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,11</t>
+          <t>0,75; 2,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,33</t>
+          <t>1,54; 3,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,66</t>
+          <t>0,83; 1,68</t>
         </is>
       </c>
     </row>
@@ -1564,52 +1564,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,38; 3,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,27; 2,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,81</t>
+          <t>1,01; 1,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,61</t>
+          <t>0,8; 1,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,43</t>
+          <t>3,97; 5,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,11</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,68</t>
+          <t>1,65; 2,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,66</t>
+          <t>1,0; 1,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,35</t>
+          <t>3,36; 4,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,03</t>
+          <t>1,36; 2,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,48</t>
+          <t>1,01; 1,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,29</t>
+          <t>1,28; 4,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,17</t>
+          <t>0,42; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,01</t>
+          <t>0,25; 2,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,75</t>
+          <t>1,78; 4,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,19</t>
+          <t>0,72; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,34</t>
+          <t>1,46; 5,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,92</t>
+          <t>1,81; 4,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,33</t>
+          <t>0,78; 2,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,95</t>
+          <t>0,99; 2,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,56</t>
+          <t>2,09; 4,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,0</t>
+          <t>0,96; 3,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,78</t>
+          <t>0,69; 2,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,76</t>
+          <t>3,13; 6,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,03</t>
+          <t>1,01; 3,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,55</t>
+          <t>1,22; 3,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,13</t>
+          <t>2,83; 5,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,65</t>
+          <t>1,23; 2,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,62</t>
+          <t>1,13; 2,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,38</t>
+          <t>2,15; 5,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,9</t>
+          <t>1,11; 3,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,22</t>
+          <t>0,46; 2,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,93</t>
+          <t>4,4; 7,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,58</t>
+          <t>1,13; 3,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,33</t>
+          <t>1,09; 3,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,13</t>
+          <t>3,75; 6,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,95</t>
+          <t>1,31; 2,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,43</t>
+          <t>0,95; 2,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,38</t>
+          <t>0,96; 3,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,04</t>
+          <t>1,26; 4,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,24</t>
+          <t>0,84; 3,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,92</t>
+          <t>2,53; 5,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,66</t>
+          <t>0,52; 2,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,17</t>
+          <t>0,88; 3,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,2</t>
+          <t>2,12; 4,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,84</t>
+          <t>1,06; 2,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,71</t>
+          <t>1,04; 2,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,2</t>
+          <t>2,13; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,63</t>
+          <t>0,47; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,66</t>
+          <t>0,43; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,37</t>
+          <t>2,81; 7,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,84</t>
+          <t>0,49; 2,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,83</t>
+          <t>0,48; 2,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,1</t>
+          <t>3,01; 5,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,39</t>
+          <t>0,71; 2,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,24</t>
+          <t>0,7; 2,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,18</t>
+          <t>1,52; 4,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,34</t>
+          <t>0,38; 2,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,07</t>
+          <t>0,9; 3,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,89</t>
+          <t>3,48; 6,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,54</t>
+          <t>0,68; 2,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,04</t>
+          <t>1,6; 4,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,1</t>
+          <t>2,97; 5,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,08</t>
+          <t>0,75; 2,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,24</t>
+          <t>1,56; 3,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,61</t>
+          <t>2,41; 3,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,21</t>
+          <t>1,24; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,86</t>
+          <t>0,97; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,39</t>
+          <t>3,97; 5,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,1</t>
+          <t>1,21; 2,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,65</t>
+          <t>1,69; 2,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,34</t>
+          <t>3,38; 4,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,0</t>
+          <t>1,34; 1,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,13</t>
+          <t>1,47; 2,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,33</t>
+          <t>1,42; 4,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,3</t>
+          <t>0,42; 2,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,26</t>
+          <t>0,25; 2,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,75</t>
+          <t>1,76; 4,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,32</t>
+          <t>0,72; 3,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,07</t>
+          <t>1,27; 5,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,52</t>
+          <t>0,4; 4,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,0</t>
+          <t>1,84; 4,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,38</t>
+          <t>0,69; 2,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,86</t>
+          <t>0,88; 2,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,4</t>
+          <t>0,37; 2,34</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,69</t>
+          <t>2,0; 4,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,1</t>
+          <t>0,97; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,76</t>
+          <t>0,7; 2,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,21</t>
+          <t>0,86; 4,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,62</t>
+          <t>3,15; 6,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,24</t>
+          <t>0,98; 3,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,58</t>
+          <t>1,05; 3,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,03</t>
+          <t>0,59; 3,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,08</t>
+          <t>2,73; 4,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,73</t>
+          <t>1,2; 2,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,69</t>
+          <t>1,12; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,22</t>
+          <t>0,98; 3,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,44</t>
+          <t>2,3; 5,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,7</t>
+          <t>1,08; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,16</t>
+          <t>0,45; 2,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,48</t>
+          <t>0,37; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,83</t>
+          <t>4,22; 7,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,55</t>
+          <t>1,13; 3,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,36</t>
+          <t>1,06; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,78</t>
+          <t>0,29; 1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,2</t>
+          <t>3,7; 5,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,99</t>
+          <t>1,28; 2,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,38</t>
+          <t>0,94; 2,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,69</t>
+          <t>0,48; 1,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,62</t>
+          <t>0,96; 3,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,17</t>
+          <t>1,24; 4,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,34</t>
+          <t>0,77; 3,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,42</t>
+          <t>0,15; 1,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,97</t>
+          <t>2,68; 6,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,84</t>
+          <t>0,52; 2,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,12</t>
+          <t>0,89; 3,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,89</t>
+          <t>0,58; 1,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,16</t>
+          <t>2,05; 4,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,78</t>
+          <t>1,16; 2,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,72</t>
+          <t>1,08; 2,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,46</t>
+          <t>0,46; 1,36</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,07</t>
+          <t>2,21; 6,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1294,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,75</t>
+          <t>0,44; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,82</t>
+          <t>0,69; 2,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,06</t>
+          <t>3,01; 7,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,84</t>
+          <t>0,48; 2,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,79</t>
+          <t>0,48; 2,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,59</t>
+          <t>0,88; 2,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,97</t>
+          <t>2,87; 5,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,14</t>
+          <t>0,69; 2,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,23</t>
+          <t>0,7; 2,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,34</t>
+          <t>0,99; 2,23</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,17</t>
+          <t>1,49; 4,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,42</t>
+          <t>0,38; 2,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,08</t>
+          <t>0,99; 3,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,88</t>
+          <t>0,65; 1,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,88</t>
+          <t>3,49; 6,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,61</t>
+          <t>0,73; 2,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,23</t>
+          <t>1,65; 4,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,89</t>
+          <t>0,78; 1,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,14</t>
+          <t>2,99; 5,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,04</t>
+          <t>0,72; 2,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,28</t>
+          <t>1,55; 3,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,68</t>
+          <t>0,86; 1,66</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,67</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,18</t>
+          <t>1,23; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,81</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,62</t>
+          <t>0,83; 1,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,46</t>
+          <t>4,0; 5,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,1</t>
+          <t>1,22; 2,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,74</t>
+          <t>1,67; 2,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,71</t>
+          <t>0,98; 1,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,32</t>
+          <t>3,38; 4,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,99</t>
+          <t>1,35; 2,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,14</t>
+          <t>1,45; 2,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,53</t>
+          <t>0,97; 1,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,16</t>
+          <t>0,42; 4,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,34</t>
+          <t>0,36; 2,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,95</t>
+          <t>0,88; 4,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,15</t>
+          <t>0,47; 2,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,24</t>
+          <t>0,89; 3,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,63</t>
+          <t>0,37; 2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,78</t>
+          <t>0,28; 1,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,74</t>
+          <t>0,47; 1,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,51</t>
+          <t>0,09; 1,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,87</t>
+          <t>0,55; 1,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,36</t>
+          <t>0,32; 1,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,67</t>
+          <t>0,7; 2,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,5</t>
+          <t>0,89; 2,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,23</t>
+          <t>0,99; 2,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,57 +1356,57 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,34</t>
+          <t>0,29; 2,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,26</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,05</t>
+          <t>0,32; 3,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,94</t>
+          <t>0,69; 2,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,86</t>
+          <t>3,76; 8,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,67</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,22</t>
+          <t>1,05; 4,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,91</t>
+          <t>0,38; 2,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,17</t>
+          <t>2,46; 5,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,11</t>
+          <t>0,15; 1,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,33</t>
+          <t>0,93; 3,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,66</t>
+          <t>0,58; 1,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,45; 8,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 3,78</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 4,45</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 2,02</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 6,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,38</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 5,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 2,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 6,39</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 3,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 4,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 1,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,42; 3,64</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,23; 2,12</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,98; 1,81</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 1,61</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 1,52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,0; 5,43</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,22; 2,11</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,67; 2,68</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,66</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 1,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>3,38; 4,35</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,35; 2,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,45; 2,13</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 1,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
